--- a/forms/release/onco_hcw_questionnaire.xlsx
+++ b/forms/release/onco_hcw_questionnaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/trop0451_ox_ac_uk/Documents/sc_onco_facility_study/questionnaire/xlsform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2707" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE5E17B7-ED44-4E74-8E51-B9F1F4449F9E}"/>
+  <xr:revisionPtr revIDLastSave="2781" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5AE2543-B1C3-4A8E-8BBB-8CE67122BEFC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="487">
   <si>
     <t>type</t>
   </si>
@@ -148,19 +148,46 @@
     <t>Full name of healthcare worker filling the form</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>uid</t>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>healthcare_worker_other</t>
+  </si>
+  <si>
+    <t>Are you filling this form on behalf of a colleague?</t>
+  </si>
+  <si>
+    <t>healthcare_worker_alt</t>
+  </si>
+  <si>
+    <t>If you are filling this form on behalf of a colleague, please select the name of your colleague.</t>
+  </si>
+  <si>
+    <t>selected(${healthcare_worker_other}, "Yes")</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>hcw_id</t>
+  </si>
+  <si>
+    <t>if(${healthcare_worker_other} = "Yes", ${healthcare_worker_alt}, ${healthcare_worker})</t>
+  </si>
+  <si>
+    <t>select_one patient_list</t>
+  </si>
+  <si>
+    <t>upid</t>
   </si>
   <si>
     <t>Unique Patient Identifier</t>
   </si>
   <si>
-    <t>regex(., concat("^", format-date(today(), "%Y"), "-000[0-9]{3}"))</t>
-  </si>
-  <si>
     <t>The **unique patient identifier** is not recognised or is not in the right format. Please check and try again.</t>
+  </si>
+  <si>
+    <t>enumerator = ${hcw_id}</t>
   </si>
   <si>
     <t>end group</t>
@@ -204,6 +231,9 @@
 If the primary cancer site is not in the choices, select **other** and then enter the primary cancer site in the next question.</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>ca_primary_site_other</t>
   </si>
   <si>
@@ -224,7 +254,7 @@
   <si>
     <t>3 What is the patient's current AJCC (American Joint Committee on Cancer) stage? 
 If unknown, please indicate **Unknown**.
-If AJCC staging is not applicable, indicate **Other** and please enter in the next question the stating using/based on another recognised staging system.</t>
+If AJCC staging is not applicable, indicate **Other** and please enter in the next question the staging using/based on another recognised staging system.</t>
   </si>
   <si>
     <t>3 A ki staz AJCC (American Joint Committee on Cancer) sa paysan I ete? 
@@ -327,24 +357,27 @@
     <t>list_name</t>
   </si>
   <si>
+    <t>enumerator</t>
+  </si>
+  <si>
     <t>yes_no</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>Wi</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Non</t>
+  </si>
+  <si>
     <t>yes_no_other</t>
   </si>
   <si>
-    <t>Wi</t>
-  </si>
-  <si>
-    <t>Non</t>
-  </si>
-  <si>
     <t>Prefer not to say</t>
   </si>
   <si>
@@ -366,64 +399,64 @@
     <t>hcw</t>
   </si>
   <si>
-    <t>nurse01</t>
-  </si>
-  <si>
-    <t>HCW01</t>
-  </si>
-  <si>
-    <t>nurse02</t>
-  </si>
-  <si>
-    <t>HCW02</t>
-  </si>
-  <si>
-    <t>nurse03</t>
-  </si>
-  <si>
-    <t>HCW03</t>
-  </si>
-  <si>
-    <t>nurse04</t>
-  </si>
-  <si>
-    <t>HCW04</t>
-  </si>
-  <si>
-    <t>nurse05</t>
-  </si>
-  <si>
-    <t>HCW05</t>
-  </si>
-  <si>
-    <t>nurse06</t>
-  </si>
-  <si>
-    <t>HCW06</t>
-  </si>
-  <si>
-    <t>nurse07</t>
-  </si>
-  <si>
-    <t>HCW07</t>
-  </si>
-  <si>
-    <t>nurse08</t>
-  </si>
-  <si>
-    <t>HCW08</t>
-  </si>
-  <si>
-    <t>nurse09</t>
-  </si>
-  <si>
-    <t>HCW09</t>
-  </si>
-  <si>
-    <t>nurse10</t>
-  </si>
-  <si>
-    <t>HCW10</t>
+    <t>hcw01</t>
+  </si>
+  <si>
+    <t>Lucie Quilindo</t>
+  </si>
+  <si>
+    <t>hcw02</t>
+  </si>
+  <si>
+    <t>Yvonne Telemaque</t>
+  </si>
+  <si>
+    <t>hcw03</t>
+  </si>
+  <si>
+    <t>Maggie Morel</t>
+  </si>
+  <si>
+    <t>hcw04</t>
+  </si>
+  <si>
+    <t>Cecile Charlette</t>
+  </si>
+  <si>
+    <t>hcw05</t>
+  </si>
+  <si>
+    <t>Audrey Zoe</t>
+  </si>
+  <si>
+    <t>hcw06</t>
+  </si>
+  <si>
+    <t>Ginette Leon</t>
+  </si>
+  <si>
+    <t>hcw07</t>
+  </si>
+  <si>
+    <t>Irene Dorothee</t>
+  </si>
+  <si>
+    <t>hcw08</t>
+  </si>
+  <si>
+    <t>Phylis Nunoo</t>
+  </si>
+  <si>
+    <t>hcw09</t>
+  </si>
+  <si>
+    <t>Johanna Rapanarilala</t>
+  </si>
+  <si>
+    <t>hcw10</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>gender</t>
@@ -480,9 +513,6 @@
     <t>Skin</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Stage 0</t>
   </si>
   <si>
@@ -523,6 +553,924 @@
   </si>
   <si>
     <t>Lot larepons (spesifye)</t>
+  </si>
+  <si>
+    <t>patient_list</t>
+  </si>
+  <si>
+    <t>P001</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>P003</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>P005</t>
+  </si>
+  <si>
+    <t>P006</t>
+  </si>
+  <si>
+    <t>P007</t>
+  </si>
+  <si>
+    <t>P008</t>
+  </si>
+  <si>
+    <t>P009</t>
+  </si>
+  <si>
+    <t>P010</t>
+  </si>
+  <si>
+    <t>P011</t>
+  </si>
+  <si>
+    <t>P012</t>
+  </si>
+  <si>
+    <t>P013</t>
+  </si>
+  <si>
+    <t>P014</t>
+  </si>
+  <si>
+    <t>P015</t>
+  </si>
+  <si>
+    <t>P016</t>
+  </si>
+  <si>
+    <t>P017</t>
+  </si>
+  <si>
+    <t>P018</t>
+  </si>
+  <si>
+    <t>P019</t>
+  </si>
+  <si>
+    <t>P020</t>
+  </si>
+  <si>
+    <t>P021</t>
+  </si>
+  <si>
+    <t>P022</t>
+  </si>
+  <si>
+    <t>P023</t>
+  </si>
+  <si>
+    <t>P024</t>
+  </si>
+  <si>
+    <t>P025</t>
+  </si>
+  <si>
+    <t>P026</t>
+  </si>
+  <si>
+    <t>P027</t>
+  </si>
+  <si>
+    <t>P028</t>
+  </si>
+  <si>
+    <t>P029</t>
+  </si>
+  <si>
+    <t>P030</t>
+  </si>
+  <si>
+    <t>P031</t>
+  </si>
+  <si>
+    <t>P032</t>
+  </si>
+  <si>
+    <t>P033</t>
+  </si>
+  <si>
+    <t>P034</t>
+  </si>
+  <si>
+    <t>P035</t>
+  </si>
+  <si>
+    <t>P036</t>
+  </si>
+  <si>
+    <t>P037</t>
+  </si>
+  <si>
+    <t>P038</t>
+  </si>
+  <si>
+    <t>P039</t>
+  </si>
+  <si>
+    <t>P040</t>
+  </si>
+  <si>
+    <t>P041</t>
+  </si>
+  <si>
+    <t>P042</t>
+  </si>
+  <si>
+    <t>P043</t>
+  </si>
+  <si>
+    <t>P044</t>
+  </si>
+  <si>
+    <t>P045</t>
+  </si>
+  <si>
+    <t>P046</t>
+  </si>
+  <si>
+    <t>P047</t>
+  </si>
+  <si>
+    <t>P048</t>
+  </si>
+  <si>
+    <t>P049</t>
+  </si>
+  <si>
+    <t>P050</t>
+  </si>
+  <si>
+    <t>P051</t>
+  </si>
+  <si>
+    <t>P052</t>
+  </si>
+  <si>
+    <t>P053</t>
+  </si>
+  <si>
+    <t>P054</t>
+  </si>
+  <si>
+    <t>P055</t>
+  </si>
+  <si>
+    <t>P056</t>
+  </si>
+  <si>
+    <t>P057</t>
+  </si>
+  <si>
+    <t>P058</t>
+  </si>
+  <si>
+    <t>P059</t>
+  </si>
+  <si>
+    <t>P060</t>
+  </si>
+  <si>
+    <t>P061</t>
+  </si>
+  <si>
+    <t>P062</t>
+  </si>
+  <si>
+    <t>P063</t>
+  </si>
+  <si>
+    <t>P064</t>
+  </si>
+  <si>
+    <t>P065</t>
+  </si>
+  <si>
+    <t>P066</t>
+  </si>
+  <si>
+    <t>P067</t>
+  </si>
+  <si>
+    <t>P068</t>
+  </si>
+  <si>
+    <t>P069</t>
+  </si>
+  <si>
+    <t>P070</t>
+  </si>
+  <si>
+    <t>P071</t>
+  </si>
+  <si>
+    <t>P072</t>
+  </si>
+  <si>
+    <t>P073</t>
+  </si>
+  <si>
+    <t>P074</t>
+  </si>
+  <si>
+    <t>P075</t>
+  </si>
+  <si>
+    <t>P076</t>
+  </si>
+  <si>
+    <t>P077</t>
+  </si>
+  <si>
+    <t>P078</t>
+  </si>
+  <si>
+    <t>P079</t>
+  </si>
+  <si>
+    <t>P080</t>
+  </si>
+  <si>
+    <t>P081</t>
+  </si>
+  <si>
+    <t>P082</t>
+  </si>
+  <si>
+    <t>P083</t>
+  </si>
+  <si>
+    <t>P084</t>
+  </si>
+  <si>
+    <t>P085</t>
+  </si>
+  <si>
+    <t>P086</t>
+  </si>
+  <si>
+    <t>P087</t>
+  </si>
+  <si>
+    <t>P088</t>
+  </si>
+  <si>
+    <t>P089</t>
+  </si>
+  <si>
+    <t>P090</t>
+  </si>
+  <si>
+    <t>P091</t>
+  </si>
+  <si>
+    <t>P092</t>
+  </si>
+  <si>
+    <t>P093</t>
+  </si>
+  <si>
+    <t>P094</t>
+  </si>
+  <si>
+    <t>P095</t>
+  </si>
+  <si>
+    <t>P096</t>
+  </si>
+  <si>
+    <t>P097</t>
+  </si>
+  <si>
+    <t>P098</t>
+  </si>
+  <si>
+    <t>P099</t>
+  </si>
+  <si>
+    <t>P100</t>
+  </si>
+  <si>
+    <t>P101</t>
+  </si>
+  <si>
+    <t>P102</t>
+  </si>
+  <si>
+    <t>P103</t>
+  </si>
+  <si>
+    <t>P104</t>
+  </si>
+  <si>
+    <t>P105</t>
+  </si>
+  <si>
+    <t>P106</t>
+  </si>
+  <si>
+    <t>P107</t>
+  </si>
+  <si>
+    <t>P108</t>
+  </si>
+  <si>
+    <t>P109</t>
+  </si>
+  <si>
+    <t>P110</t>
+  </si>
+  <si>
+    <t>P111</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>P113</t>
+  </si>
+  <si>
+    <t>P114</t>
+  </si>
+  <si>
+    <t>P115</t>
+  </si>
+  <si>
+    <t>P116</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>P118</t>
+  </si>
+  <si>
+    <t>P119</t>
+  </si>
+  <si>
+    <t>P120</t>
+  </si>
+  <si>
+    <t>P121</t>
+  </si>
+  <si>
+    <t>P122</t>
+  </si>
+  <si>
+    <t>P123</t>
+  </si>
+  <si>
+    <t>P124</t>
+  </si>
+  <si>
+    <t>P125</t>
+  </si>
+  <si>
+    <t>P126</t>
+  </si>
+  <si>
+    <t>P127</t>
+  </si>
+  <si>
+    <t>P128</t>
+  </si>
+  <si>
+    <t>P129</t>
+  </si>
+  <si>
+    <t>P130</t>
+  </si>
+  <si>
+    <t>P131</t>
+  </si>
+  <si>
+    <t>P132</t>
+  </si>
+  <si>
+    <t>P133</t>
+  </si>
+  <si>
+    <t>P134</t>
+  </si>
+  <si>
+    <t>P135</t>
+  </si>
+  <si>
+    <t>P136</t>
+  </si>
+  <si>
+    <t>P137</t>
+  </si>
+  <si>
+    <t>P138</t>
+  </si>
+  <si>
+    <t>P139</t>
+  </si>
+  <si>
+    <t>P140</t>
+  </si>
+  <si>
+    <t>P141</t>
+  </si>
+  <si>
+    <t>P142</t>
+  </si>
+  <si>
+    <t>P143</t>
+  </si>
+  <si>
+    <t>P144</t>
+  </si>
+  <si>
+    <t>P145</t>
+  </si>
+  <si>
+    <t>P146</t>
+  </si>
+  <si>
+    <t>P147</t>
+  </si>
+  <si>
+    <t>P148</t>
+  </si>
+  <si>
+    <t>P149</t>
+  </si>
+  <si>
+    <t>P150</t>
+  </si>
+  <si>
+    <t>P151</t>
+  </si>
+  <si>
+    <t>P152</t>
+  </si>
+  <si>
+    <t>P153</t>
+  </si>
+  <si>
+    <t>P154</t>
+  </si>
+  <si>
+    <t>P155</t>
+  </si>
+  <si>
+    <t>P156</t>
+  </si>
+  <si>
+    <t>P157</t>
+  </si>
+  <si>
+    <t>P158</t>
+  </si>
+  <si>
+    <t>P159</t>
+  </si>
+  <si>
+    <t>P160</t>
+  </si>
+  <si>
+    <t>P161</t>
+  </si>
+  <si>
+    <t>P162</t>
+  </si>
+  <si>
+    <t>P163</t>
+  </si>
+  <si>
+    <t>P164</t>
+  </si>
+  <si>
+    <t>P165</t>
+  </si>
+  <si>
+    <t>P166</t>
+  </si>
+  <si>
+    <t>P167</t>
+  </si>
+  <si>
+    <t>P168</t>
+  </si>
+  <si>
+    <t>P169</t>
+  </si>
+  <si>
+    <t>P170</t>
+  </si>
+  <si>
+    <t>P171</t>
+  </si>
+  <si>
+    <t>P172</t>
+  </si>
+  <si>
+    <t>P173</t>
+  </si>
+  <si>
+    <t>P174</t>
+  </si>
+  <si>
+    <t>P175</t>
+  </si>
+  <si>
+    <t>P176</t>
+  </si>
+  <si>
+    <t>P177</t>
+  </si>
+  <si>
+    <t>P178</t>
+  </si>
+  <si>
+    <t>P179</t>
+  </si>
+  <si>
+    <t>P180</t>
+  </si>
+  <si>
+    <t>P181</t>
+  </si>
+  <si>
+    <t>P182</t>
+  </si>
+  <si>
+    <t>P183</t>
+  </si>
+  <si>
+    <t>P184</t>
+  </si>
+  <si>
+    <t>P185</t>
+  </si>
+  <si>
+    <t>P186</t>
+  </si>
+  <si>
+    <t>P187</t>
+  </si>
+  <si>
+    <t>P188</t>
+  </si>
+  <si>
+    <t>P189</t>
+  </si>
+  <si>
+    <t>P190</t>
+  </si>
+  <si>
+    <t>P191</t>
+  </si>
+  <si>
+    <t>P192</t>
+  </si>
+  <si>
+    <t>P193</t>
+  </si>
+  <si>
+    <t>P194</t>
+  </si>
+  <si>
+    <t>P195</t>
+  </si>
+  <si>
+    <t>P196</t>
+  </si>
+  <si>
+    <t>P197</t>
+  </si>
+  <si>
+    <t>P198</t>
+  </si>
+  <si>
+    <t>P199</t>
+  </si>
+  <si>
+    <t>P200</t>
+  </si>
+  <si>
+    <t>P201</t>
+  </si>
+  <si>
+    <t>P202</t>
+  </si>
+  <si>
+    <t>P203</t>
+  </si>
+  <si>
+    <t>P204</t>
+  </si>
+  <si>
+    <t>P205</t>
+  </si>
+  <si>
+    <t>P206</t>
+  </si>
+  <si>
+    <t>P207</t>
+  </si>
+  <si>
+    <t>P208</t>
+  </si>
+  <si>
+    <t>P209</t>
+  </si>
+  <si>
+    <t>P210</t>
+  </si>
+  <si>
+    <t>P211</t>
+  </si>
+  <si>
+    <t>P212</t>
+  </si>
+  <si>
+    <t>P213</t>
+  </si>
+  <si>
+    <t>P214</t>
+  </si>
+  <si>
+    <t>P215</t>
+  </si>
+  <si>
+    <t>P216</t>
+  </si>
+  <si>
+    <t>P217</t>
+  </si>
+  <si>
+    <t>P218</t>
+  </si>
+  <si>
+    <t>P219</t>
+  </si>
+  <si>
+    <t>P220</t>
+  </si>
+  <si>
+    <t>P221</t>
+  </si>
+  <si>
+    <t>P222</t>
+  </si>
+  <si>
+    <t>P223</t>
+  </si>
+  <si>
+    <t>P224</t>
+  </si>
+  <si>
+    <t>P225</t>
+  </si>
+  <si>
+    <t>P226</t>
+  </si>
+  <si>
+    <t>P227</t>
+  </si>
+  <si>
+    <t>P228</t>
+  </si>
+  <si>
+    <t>P229</t>
+  </si>
+  <si>
+    <t>P230</t>
+  </si>
+  <si>
+    <t>P231</t>
+  </si>
+  <si>
+    <t>P232</t>
+  </si>
+  <si>
+    <t>P233</t>
+  </si>
+  <si>
+    <t>P234</t>
+  </si>
+  <si>
+    <t>P235</t>
+  </si>
+  <si>
+    <t>P236</t>
+  </si>
+  <si>
+    <t>P237</t>
+  </si>
+  <si>
+    <t>P238</t>
+  </si>
+  <si>
+    <t>P239</t>
+  </si>
+  <si>
+    <t>P240</t>
+  </si>
+  <si>
+    <t>P241</t>
+  </si>
+  <si>
+    <t>P242</t>
+  </si>
+  <si>
+    <t>P243</t>
+  </si>
+  <si>
+    <t>P244</t>
+  </si>
+  <si>
+    <t>P245</t>
+  </si>
+  <si>
+    <t>P246</t>
+  </si>
+  <si>
+    <t>P247</t>
+  </si>
+  <si>
+    <t>P248</t>
+  </si>
+  <si>
+    <t>P249</t>
+  </si>
+  <si>
+    <t>P250</t>
+  </si>
+  <si>
+    <t>P251</t>
+  </si>
+  <si>
+    <t>P252</t>
+  </si>
+  <si>
+    <t>P253</t>
+  </si>
+  <si>
+    <t>P254</t>
+  </si>
+  <si>
+    <t>P255</t>
+  </si>
+  <si>
+    <t>P256</t>
+  </si>
+  <si>
+    <t>P257</t>
+  </si>
+  <si>
+    <t>P258</t>
+  </si>
+  <si>
+    <t>P259</t>
+  </si>
+  <si>
+    <t>P260</t>
+  </si>
+  <si>
+    <t>P261</t>
+  </si>
+  <si>
+    <t>P262</t>
+  </si>
+  <si>
+    <t>P263</t>
+  </si>
+  <si>
+    <t>P264</t>
+  </si>
+  <si>
+    <t>P265</t>
+  </si>
+  <si>
+    <t>P266</t>
+  </si>
+  <si>
+    <t>P267</t>
+  </si>
+  <si>
+    <t>P268</t>
+  </si>
+  <si>
+    <t>P269</t>
+  </si>
+  <si>
+    <t>P270</t>
+  </si>
+  <si>
+    <t>P271</t>
+  </si>
+  <si>
+    <t>P272</t>
+  </si>
+  <si>
+    <t>P273</t>
+  </si>
+  <si>
+    <t>P274</t>
+  </si>
+  <si>
+    <t>P275</t>
+  </si>
+  <si>
+    <t>P276</t>
+  </si>
+  <si>
+    <t>P277</t>
+  </si>
+  <si>
+    <t>P278</t>
+  </si>
+  <si>
+    <t>P279</t>
+  </si>
+  <si>
+    <t>P280</t>
+  </si>
+  <si>
+    <t>P281</t>
+  </si>
+  <si>
+    <t>P282</t>
+  </si>
+  <si>
+    <t>P283</t>
+  </si>
+  <si>
+    <t>P284</t>
+  </si>
+  <si>
+    <t>P285</t>
+  </si>
+  <si>
+    <t>P286</t>
+  </si>
+  <si>
+    <t>P287</t>
+  </si>
+  <si>
+    <t>P288</t>
+  </si>
+  <si>
+    <t>P289</t>
+  </si>
+  <si>
+    <t>P290</t>
+  </si>
+  <si>
+    <t>P291</t>
+  </si>
+  <si>
+    <t>P292</t>
+  </si>
+  <si>
+    <t>P293</t>
+  </si>
+  <si>
+    <t>P294</t>
+  </si>
+  <si>
+    <t>P295</t>
+  </si>
+  <si>
+    <t>P296</t>
+  </si>
+  <si>
+    <t>P297</t>
+  </si>
+  <si>
+    <t>P298</t>
+  </si>
+  <si>
+    <t>P299</t>
+  </si>
+  <si>
+    <t>P300</t>
+  </si>
+  <si>
+    <t>P301</t>
+  </si>
+  <si>
+    <t>P302</t>
+  </si>
+  <si>
+    <t>P303</t>
+  </si>
+  <si>
+    <t>P304</t>
+  </si>
+  <si>
+    <t>P305</t>
   </si>
   <si>
     <t>form_title</t>
@@ -809,7 +1757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
@@ -892,6 +1840,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,11 +2178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -1248,7 +2199,7 @@
     <col min="11" max="11" width="75.7109375" style="9" customWidth="1"/>
     <col min="12" max="14" width="42.85546875" style="9" customWidth="1"/>
     <col min="15" max="15" width="57.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="75.7109375" style="9" customWidth="1"/>
     <col min="17" max="17" width="35.7109375" style="9" customWidth="1"/>
     <col min="18" max="18" width="28.5703125" style="9" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="9" customWidth="1"/>
@@ -1511,7 +2462,7 @@
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
     </row>
-    <row r="9" spans="1:22" ht="62.25">
+    <row r="9" spans="1:22" ht="15.75">
       <c r="A9" s="23" t="s">
         <v>36</v>
       </c>
@@ -1524,26 +2475,20 @@
       <c r="D9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
-      <c r="K9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>40</v>
-      </c>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="R9" s="23"/>
       <c r="S9" s="23" t="s">
         <v>32</v>
       </c>
@@ -1551,188 +2496,184 @@
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
     </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:22" ht="30.75">
+      <c r="A10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" s="25" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+    </row>
+    <row r="11" spans="1:22" ht="30.75">
+      <c r="A11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+    </row>
+    <row r="12" spans="1:22" ht="62.25">
+      <c r="A12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="23" t="s">
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23" t="s">
+      <c r="B16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-    </row>
-    <row r="14" spans="1:22" ht="78">
-      <c r="A14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-    </row>
-    <row r="15" spans="1:22" ht="15.75">
-      <c r="A15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-    </row>
-    <row r="16" spans="1:22" ht="128.25" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -1753,32 +2694,34 @@
       <c r="U16" s="23"/>
       <c r="V16" s="23"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75">
+    <row r="17" spans="1:22" ht="78">
       <c r="A17" s="23" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
-      <c r="O17" s="23" t="s">
-        <v>65</v>
-      </c>
+      <c r="O17" s="23"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
@@ -1789,36 +2732,32 @@
       <c r="U17" s="23"/>
       <c r="V17" s="23"/>
     </row>
-    <row r="18" spans="1:22" ht="62.1">
+    <row r="18" spans="1:22" ht="15.75">
       <c r="A18" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="23" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>71</v>
-      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="O18" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
@@ -1829,22 +2768,22 @@
       <c r="U18" s="23"/>
       <c r="V18" s="23"/>
     </row>
-    <row r="19" spans="1:22" ht="30.95">
+    <row r="19" spans="1:22" ht="128.25" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
@@ -1863,22 +2802,22 @@
       <c r="U19" s="23"/>
       <c r="V19" s="23"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" ht="15.75">
       <c r="A20" s="23" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -1887,36 +2826,44 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
+      <c r="S20" s="23" t="s">
+        <v>32</v>
+      </c>
       <c r="T20" s="23"/>
       <c r="U20" s="23"/>
       <c r="V20" s="23"/>
     </row>
-    <row r="21" spans="1:22" ht="46.5">
+    <row r="21" spans="1:22" ht="62.1">
       <c r="A21" s="23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="K21" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
@@ -1933,20 +2880,20 @@
     </row>
     <row r="22" spans="1:22" ht="30.95">
       <c r="A22" s="23" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -1954,9 +2901,7 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="O22" s="23"/>
       <c r="P22" s="23"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
@@ -1968,64 +2913,168 @@
       <c r="V22" s="23"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="15" t="s">
+      <c r="A23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+    </row>
+    <row r="24" spans="1:22" ht="46.5">
+      <c r="A24" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-    </row>
-    <row r="26" spans="1:22" ht="15.75"/>
+      <c r="B24" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" spans="1:22" ht="30.95">
+      <c r="A25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2033,11 +3082,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CAEB74-84D4-4E7C-B2CF-326FBC1B5099}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D366" sqref="D366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6"/>
@@ -2046,12 +3095,13 @@
     <col min="2" max="2" width="28.5703125" style="9" customWidth="1"/>
     <col min="3" max="3" width="153.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="127.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="5" max="5" width="25.7109375" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="16" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -2062,689 +3112,5917 @@
       <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B7" s="19">
         <v>99</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="19" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>107</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="19" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B11" s="19">
+        <v>88</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="19">
         <v>99</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="9">
+        <v>114</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="9">
         <v>88</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="C16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="9">
         <v>99</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>117</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>119</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>121</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>123</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
-        <v>105</v>
-      </c>
       <c r="B24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>127</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>129</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="9">
+        <v>137</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="9">
         <v>99</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>132</v>
+      <c r="C32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B34" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B35" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B36" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B37" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B38" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B39" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B40" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B41" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B42" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B43" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B44" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B45" s="9">
+        <v>12</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B46" s="9">
         <v>13</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="9">
-        <v>0</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>145</v>
+      <c r="C46" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B48" s="9">
+        <v>0</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="9">
         <v>1</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" s="9">
+      <c r="C49" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="9">
+      <c r="C50" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="9">
         <v>3</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="9">
+      <c r="C51" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="9">
         <v>4</v>
       </c>
-      <c r="C51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="9">
+      <c r="C52" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="9">
         <v>5</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75">
-      <c r="A53" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="9">
+      <c r="C53" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75">
+      <c r="A54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="9">
         <v>99</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75">
-      <c r="A55" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B55" s="9">
+      <c r="C54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75">
+      <c r="A56" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="9">
         <v>1</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75">
-      <c r="A56" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" s="9">
+      <c r="C56" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75">
+      <c r="A57" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="9">
         <v>2</v>
       </c>
-      <c r="C56" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75">
-      <c r="A57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B57" s="9">
+      <c r="C57" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75">
+      <c r="A58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="9">
         <v>3</v>
       </c>
-      <c r="C57" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75">
-      <c r="A58" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B58" s="9">
+      <c r="C58" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75">
+      <c r="A59" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="9">
         <v>4</v>
       </c>
-      <c r="C58" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="9">
+      <c r="C59" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75">
+      <c r="A60" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="9">
         <v>99</v>
       </c>
-      <c r="C59" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75"/>
-    <row r="61" spans="1:4" ht="15.75"/>
+      <c r="C60" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75"/>
+    <row r="62" spans="1:5" ht="15.75">
+      <c r="A62" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75">
+      <c r="A63" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75">
+      <c r="A64" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75">
+      <c r="A67" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75">
+      <c r="A69" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75">
+      <c r="A70" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75">
+      <c r="A71" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75">
+      <c r="A72" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75">
+      <c r="A73" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75">
+      <c r="A75" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75">
+      <c r="A76" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75">
+      <c r="A78" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75">
+      <c r="A79" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75">
+      <c r="A81" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75">
+      <c r="A82" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75">
+      <c r="A84" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75">
+      <c r="A85" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75">
+      <c r="A86" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75">
+      <c r="A87" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75">
+      <c r="A88" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75">
+      <c r="A89" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75">
+      <c r="A90" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75">
+      <c r="A91" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75">
+      <c r="A92" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75">
+      <c r="A93" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75">
+      <c r="A94" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75">
+      <c r="A95" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75">
+      <c r="A96" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75">
+      <c r="A97" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75">
+      <c r="A98" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75">
+      <c r="A99" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75">
+      <c r="A100" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75">
+      <c r="A101" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75">
+      <c r="A102" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75">
+      <c r="A103" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75">
+      <c r="A104" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75">
+      <c r="A105" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75">
+      <c r="A106" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75">
+      <c r="A107" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75">
+      <c r="A108" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75">
+      <c r="A109" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75">
+      <c r="A110" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75">
+      <c r="A111" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75">
+      <c r="A112" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75">
+      <c r="A113" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75">
+      <c r="A114" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75">
+      <c r="A115" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75">
+      <c r="A116" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75">
+      <c r="A117" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E117" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75">
+      <c r="A118" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75">
+      <c r="A119" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75">
+      <c r="A120" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75">
+      <c r="A121" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75">
+      <c r="A122" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75">
+      <c r="A123" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75">
+      <c r="A124" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75">
+      <c r="A125" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75">
+      <c r="A126" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75">
+      <c r="A127" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75">
+      <c r="A128" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75">
+      <c r="A129" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75">
+      <c r="A130" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75">
+      <c r="A131" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75">
+      <c r="A132" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75">
+      <c r="A133" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75">
+      <c r="A134" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75">
+      <c r="A135" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75">
+      <c r="A136" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75">
+      <c r="A137" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75">
+      <c r="A138" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75">
+      <c r="A139" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75">
+      <c r="A140" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75">
+      <c r="A141" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75">
+      <c r="A142" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75">
+      <c r="A143" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75">
+      <c r="A144" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75">
+      <c r="A145" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75">
+      <c r="A146" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75">
+      <c r="A147" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75">
+      <c r="A148" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75">
+      <c r="A149" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75">
+      <c r="A150" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75">
+      <c r="A151" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75">
+      <c r="A152" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75">
+      <c r="A153" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75">
+      <c r="A154" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75">
+      <c r="A155" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75">
+      <c r="A156" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75">
+      <c r="A157" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75">
+      <c r="A158" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75">
+      <c r="A159" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75">
+      <c r="A160" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75">
+      <c r="A161" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75">
+      <c r="A162" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75">
+      <c r="A163" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75">
+      <c r="A164" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C164" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75">
+      <c r="A165" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75">
+      <c r="A166" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75">
+      <c r="A167" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75">
+      <c r="A168" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75">
+      <c r="A169" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75">
+      <c r="A170" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75">
+      <c r="A171" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75">
+      <c r="A172" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C172" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75">
+      <c r="A173" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75">
+      <c r="A174" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75">
+      <c r="A175" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75">
+      <c r="A176" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C176" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75">
+      <c r="A177" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D177" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75">
+      <c r="A178" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C178" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D178" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75">
+      <c r="A179" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75">
+      <c r="A180" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75">
+      <c r="A181" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75">
+      <c r="A182" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75">
+      <c r="A183" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75">
+      <c r="A184" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75">
+      <c r="A185" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75">
+      <c r="A186" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75">
+      <c r="A187" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75">
+      <c r="A188" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75">
+      <c r="A189" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75">
+      <c r="A190" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75">
+      <c r="A191" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75">
+      <c r="A192" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75">
+      <c r="A193" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75">
+      <c r="A194" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75">
+      <c r="A195" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75">
+      <c r="A196" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75">
+      <c r="A197" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75">
+      <c r="A198" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75">
+      <c r="A199" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75">
+      <c r="A200" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B200" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75">
+      <c r="A201" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B201" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D201" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75">
+      <c r="A202" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B202" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75">
+      <c r="A203" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D203" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75">
+      <c r="A204" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75">
+      <c r="A205" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B205" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75">
+      <c r="A206" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C206" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75">
+      <c r="A207" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B207" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75">
+      <c r="A208" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C208" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75">
+      <c r="A209" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75">
+      <c r="A210" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75">
+      <c r="A211" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75">
+      <c r="A212" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75">
+      <c r="A213" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75">
+      <c r="A214" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75">
+      <c r="A215" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75">
+      <c r="A216" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75">
+      <c r="A217" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75">
+      <c r="A218" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75">
+      <c r="A219" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75">
+      <c r="A220" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B220" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75">
+      <c r="A221" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B221" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75">
+      <c r="A222" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75">
+      <c r="A223" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B223" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75">
+      <c r="A224" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D224" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75">
+      <c r="A225" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B225" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D225" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75">
+      <c r="A226" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D226" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75">
+      <c r="A227" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B227" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D227" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75">
+      <c r="A228" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B228" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75">
+      <c r="A229" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B229" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75">
+      <c r="A230" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B230" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75">
+      <c r="A231" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B231" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75">
+      <c r="A232" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75">
+      <c r="A233" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75">
+      <c r="A234" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75">
+      <c r="A235" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75">
+      <c r="A236" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75">
+      <c r="A237" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75">
+      <c r="A238" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75">
+      <c r="A239" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B239" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75">
+      <c r="A240" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75">
+      <c r="A241" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75">
+      <c r="A242" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B242" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75">
+      <c r="A243" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75">
+      <c r="A244" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B244" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75">
+      <c r="A245" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B245" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75">
+      <c r="A246" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75">
+      <c r="A247" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75">
+      <c r="A248" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75">
+      <c r="A249" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75">
+      <c r="A250" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15.75">
+      <c r="A251" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.75">
+      <c r="A252" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15.75">
+      <c r="A253" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.75">
+      <c r="A254" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.75">
+      <c r="A255" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75">
+      <c r="A256" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75">
+      <c r="A257" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.75">
+      <c r="A258" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75">
+      <c r="A259" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75">
+      <c r="A260" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75">
+      <c r="A261" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75">
+      <c r="A262" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75">
+      <c r="A263" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75">
+      <c r="A264" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75">
+      <c r="A265" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75">
+      <c r="A266" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E266" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75">
+      <c r="A267" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75">
+      <c r="A268" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75">
+      <c r="A269" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75">
+      <c r="A270" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.75">
+      <c r="A271" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E271" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75">
+      <c r="A272" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75">
+      <c r="A273" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.75">
+      <c r="A274" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15.75">
+      <c r="A275" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.75">
+      <c r="A276" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15.75">
+      <c r="A277" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.75">
+      <c r="A278" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75">
+      <c r="A279" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.75">
+      <c r="A280" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15.75">
+      <c r="A281" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.75">
+      <c r="A282" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75">
+      <c r="A283" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.75">
+      <c r="A284" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15.75">
+      <c r="A285" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15.75">
+      <c r="A286" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15.75">
+      <c r="A287" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15.75">
+      <c r="A288" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C288" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15.75">
+      <c r="A289" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15.75">
+      <c r="A290" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15.75">
+      <c r="A291" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15.75">
+      <c r="A292" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C292" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15.75">
+      <c r="A293" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15.75">
+      <c r="A294" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15.75">
+      <c r="A295" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15.75">
+      <c r="A296" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15.75">
+      <c r="A297" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15.75">
+      <c r="A298" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C298" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15.75">
+      <c r="A299" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C299" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15.75">
+      <c r="A300" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="C300" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15.75">
+      <c r="A301" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15.75">
+      <c r="A302" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15.75">
+      <c r="A303" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15.75">
+      <c r="A304" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E304" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.75">
+      <c r="A305" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15.75">
+      <c r="A306" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E306" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15.75">
+      <c r="A307" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15.75">
+      <c r="A308" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E308" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15.75">
+      <c r="A309" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15.75">
+      <c r="A310" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B310" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15.75">
+      <c r="A311" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15.75">
+      <c r="A312" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E312" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15.75">
+      <c r="A313" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15.75">
+      <c r="A314" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E314" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15.75">
+      <c r="A315" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15.75">
+      <c r="A316" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E316" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15.75">
+      <c r="A317" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15.75">
+      <c r="A318" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15.75">
+      <c r="A319" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75">
+      <c r="A320" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E320" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15.75">
+      <c r="A321" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15.75">
+      <c r="A322" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E322" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15.75">
+      <c r="A323" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15.75">
+      <c r="A324" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E324" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.75">
+      <c r="A325" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E325" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.75">
+      <c r="A326" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15.75">
+      <c r="A327" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B327" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E327" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15.75">
+      <c r="A328" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C328" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E328" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.75">
+      <c r="A329" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E329" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.75">
+      <c r="A330" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C330" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E330" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.75">
+      <c r="A331" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C331" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15.75">
+      <c r="A332" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E332" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15.75">
+      <c r="A333" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E333" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15.75">
+      <c r="A334" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E334" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15.75">
+      <c r="A335" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B335" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D335" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15.75">
+      <c r="A336" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B336" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E336" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15.75">
+      <c r="A337" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E337" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15.75">
+      <c r="A338" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B338" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C338" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E338" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15.75">
+      <c r="A339" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C339" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E339" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15.75">
+      <c r="A340" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B340" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C340" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E340" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15.75">
+      <c r="A341" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E341" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15.75">
+      <c r="A342" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E342" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15.75">
+      <c r="A343" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E343" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15.75">
+      <c r="A344" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E344" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15.75">
+      <c r="A345" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E345" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15.75">
+      <c r="A346" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E346" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15.75">
+      <c r="A347" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E347" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15.75">
+      <c r="A348" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E348" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15.75">
+      <c r="A349" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E349" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.75">
+      <c r="A350" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E350" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.75">
+      <c r="A351" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C351" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="E351" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="15.75">
+      <c r="A352" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E352" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15.75">
+      <c r="A353" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E353" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.75">
+      <c r="A354" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E354" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.75">
+      <c r="A355" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="E355" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.75">
+      <c r="A356" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D356" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E356" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.75">
+      <c r="A357" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D357" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E357" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.75">
+      <c r="A358" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C358" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D358" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E358" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15.75">
+      <c r="A359" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="D359" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E359" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.75">
+      <c r="A360" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D360" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E360" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.75">
+      <c r="A361" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E361" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75">
+      <c r="A362" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E362" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.75">
+      <c r="A363" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B363" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="E363" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.75">
+      <c r="A364" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="E364" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.75">
+      <c r="A365" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="E365" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.75">
+      <c r="A366" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="E366" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2755,8 +9033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310AA5A0-4D6B-4099-B591-C5C0F41F7863}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6"/>
@@ -2772,45 +9050,45 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>476</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>477</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>479</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>480</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>165</v>
+        <v>481</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>166</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>167</v>
+        <v>483</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>484</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>169</v>
+        <v>485</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>170</v>
+        <v>486</v>
       </c>
       <c r="H2" s="4">
-        <v>2025041510</v>
+        <v>2025050802</v>
       </c>
     </row>
   </sheetData>

--- a/forms/release/onco_hcw_questionnaire.xlsx
+++ b/forms/release/onco_hcw_questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/trop0451_ox_ac_uk/Documents/sc_onco_facility_study/questionnaire/xlsform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2781" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5AE2543-B1C3-4A8E-8BBB-8CE67122BEFC}"/>
+  <xr:revisionPtr revIDLastSave="2783" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9784AA51-9377-4872-B085-1476185228D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -402,49 +402,49 @@
     <t>hcw01</t>
   </si>
   <si>
+    <t>Audrey Zoe</t>
+  </si>
+  <si>
+    <t>hcw02</t>
+  </si>
+  <si>
+    <t>Cecile Charlette</t>
+  </si>
+  <si>
+    <t>hcw03</t>
+  </si>
+  <si>
+    <t>Ginette Leon</t>
+  </si>
+  <si>
+    <t>hcw04</t>
+  </si>
+  <si>
+    <t>Irene Dorothee</t>
+  </si>
+  <si>
+    <t>hcw05</t>
+  </si>
+  <si>
     <t>Lucie Quilindo</t>
   </si>
   <si>
-    <t>hcw02</t>
+    <t>hcw06</t>
+  </si>
+  <si>
+    <t>Maggie Morel</t>
+  </si>
+  <si>
+    <t>hcw07</t>
+  </si>
+  <si>
+    <t>Phylis Nunoo</t>
+  </si>
+  <si>
+    <t>hcw08</t>
   </si>
   <si>
     <t>Yvonne Telemaque</t>
-  </si>
-  <si>
-    <t>hcw03</t>
-  </si>
-  <si>
-    <t>Maggie Morel</t>
-  </si>
-  <si>
-    <t>hcw04</t>
-  </si>
-  <si>
-    <t>Cecile Charlette</t>
-  </si>
-  <si>
-    <t>hcw05</t>
-  </si>
-  <si>
-    <t>Audrey Zoe</t>
-  </si>
-  <si>
-    <t>hcw06</t>
-  </si>
-  <si>
-    <t>Ginette Leon</t>
-  </si>
-  <si>
-    <t>hcw07</t>
-  </si>
-  <si>
-    <t>Irene Dorothee</t>
-  </si>
-  <si>
-    <t>hcw08</t>
-  </si>
-  <si>
-    <t>Phylis Nunoo</t>
   </si>
   <si>
     <t>hcw09</t>
@@ -2180,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="A31" sqref="A31"/>
       <selection pane="bottomLeft"/>
@@ -3086,7 +3086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D366" sqref="D366"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.6"/>
@@ -9033,7 +9033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310AA5A0-4D6B-4099-B591-C5C0F41F7863}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -9088,7 +9088,7 @@
         <v>486</v>
       </c>
       <c r="H2" s="4">
-        <v>2025050802</v>
+        <v>2025050803</v>
       </c>
     </row>
   </sheetData>
